--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-328360.0348831218</v>
+        <v>-330992.3502066118</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>160.1899350929536</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,16 +665,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>305.7146701940966</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>242.4522989052782</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906503</v>
+        <v>96.65565115906499</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833751</v>
+        <v>33.85559031833739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>129.4793709806739</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>203.3178737475817</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,10 +911,10 @@
         <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>13.72791487514101</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>132.7441522380967</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>107.8131144459134</v>
       </c>
       <c r="Y7" t="n">
-        <v>54.76657919050468</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>384.5908546740194</v>
       </c>
       <c r="G8" t="n">
         <v>411.5250233818693</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>54.88874011857234</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>205.5597675484903</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>226.0875613284651</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>64.36993339924462</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>132.6315337216697</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>130.1208074460222</v>
+        <v>28.42659968729067</v>
       </c>
       <c r="D16" t="n">
-        <v>9.426533627750662e-13</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922702</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>62.14989839348718</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856647</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>142.8873577254024</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>139.5115415340516</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>135.5795121770523</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>78.91051008678102</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>285.5970594671152</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>122.6028762599951</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>144.8592102470459</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,13 +3190,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>113.6427030833203</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,13 +3241,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>75.00788511618082</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.6587144826194</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261735</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545294</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.741638509606</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1473.61902063398</v>
+        <v>1447.327144952844</v>
       </c>
       <c r="C2" t="n">
-        <v>1104.656503693569</v>
+        <v>1078.364628012433</v>
       </c>
       <c r="D2" t="n">
-        <v>746.3908050868181</v>
+        <v>720.0989294056822</v>
       </c>
       <c r="E2" t="n">
-        <v>360.6025524885738</v>
+        <v>720.0989294056822</v>
       </c>
       <c r="F2" t="n">
-        <v>360.6025524885738</v>
+        <v>713.1534286564787</v>
       </c>
       <c r="G2" t="n">
-        <v>51.79985532281972</v>
+        <v>296.7011673483533</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I2" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073753</v>
+        <v>125.8997233870228</v>
       </c>
       <c r="K2" t="n">
-        <v>605.2571586872803</v>
+        <v>287.6947354520175</v>
       </c>
       <c r="L2" t="n">
-        <v>842.8799399054703</v>
+        <v>525.3175166702088</v>
       </c>
       <c r="M2" t="n">
-        <v>1138.950506463071</v>
+        <v>1166.340726290103</v>
       </c>
       <c r="N2" t="n">
-        <v>1444.425612698655</v>
+        <v>1807.363935909996</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015287</v>
+        <v>2248.314393858357</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394156</v>
+        <v>2448.61872114746</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466516</v>
+        <v>2550.866182466514</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016314</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2236.241780077745</v>
       </c>
       <c r="U2" t="n">
-        <v>2589.992766140986</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>2589.992766140986</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="W2" t="n">
-        <v>2237.224110870872</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="X2" t="n">
-        <v>1863.758352609792</v>
+        <v>1609.135160198252</v>
       </c>
       <c r="Y2" t="n">
-        <v>1473.61902063398</v>
+        <v>1609.135160198252</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.890208309364</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.437179028237</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669858</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615303</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884153</v>
+        <v>320.7307563884144</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686809</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093843</v>
+        <v>85.99742130093824</v>
       </c>
       <c r="I3" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369548</v>
+        <v>201.9455071369552</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496857</v>
+        <v>585.1891840496866</v>
       </c>
       <c r="L3" t="n">
-        <v>1041.052645433275</v>
+        <v>794.780057302517</v>
       </c>
       <c r="M3" t="n">
-        <v>1304.992176928761</v>
+        <v>1435.803266922411</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.326047362092</v>
+        <v>1905.604188315627</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113549</v>
+        <v>2144.409140067085</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020796</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
+        <v>2589.992766140985</v>
+      </c>
+      <c r="R3" t="n">
         <v>2589.992766140986</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128892</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.954701028121</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
-        <v>1533.717344299919</v>
+        <v>1533.717344299918</v>
       </c>
       <c r="X3" t="n">
-        <v>1325.865844094386</v>
+        <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1330.590312102689</v>
+        <v>801.2731032096923</v>
       </c>
       <c r="C4" t="n">
-        <v>1330.590312102689</v>
+        <v>632.3369202817854</v>
       </c>
       <c r="D4" t="n">
-        <v>1330.590312102689</v>
+        <v>482.2202808694497</v>
       </c>
       <c r="E4" t="n">
-        <v>1330.590312102689</v>
+        <v>334.3071872870565</v>
       </c>
       <c r="F4" t="n">
-        <v>1330.590312102689</v>
+        <v>203.5199438722344</v>
       </c>
       <c r="G4" t="n">
-        <v>1330.590312102689</v>
+        <v>203.5199438722344</v>
       </c>
       <c r="H4" t="n">
-        <v>1330.590312102689</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I4" t="n">
-        <v>1330.590312102689</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J4" t="n">
-        <v>1332.824984110053</v>
+        <v>54.03452733018396</v>
       </c>
       <c r="K4" t="n">
-        <v>1466.334073395855</v>
+        <v>187.543616615987</v>
       </c>
       <c r="L4" t="n">
-        <v>1692.706176713999</v>
+        <v>413.9157199341309</v>
       </c>
       <c r="M4" t="n">
-        <v>1941.772943046538</v>
+        <v>662.982486266671</v>
       </c>
       <c r="N4" t="n">
-        <v>2190.352074789138</v>
+        <v>911.5616180092716</v>
       </c>
       <c r="O4" t="n">
-        <v>2403.938841137293</v>
+        <v>1125.148384357426</v>
       </c>
       <c r="P4" t="n">
-        <v>2563.178535773336</v>
+        <v>1284.38807899347</v>
       </c>
       <c r="Q4" t="n">
-        <v>2589.992766140986</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="R4" t="n">
-        <v>2589.992766140986</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="S4" t="n">
-        <v>2589.992766140986</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="T4" t="n">
-        <v>2589.992766140986</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="U4" t="n">
-        <v>2300.856139133088</v>
+        <v>1022.065682353222</v>
       </c>
       <c r="V4" t="n">
-        <v>2046.171650927201</v>
+        <v>1022.065682353222</v>
       </c>
       <c r="W4" t="n">
-        <v>1756.754480890241</v>
+        <v>1022.065682353222</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.382891246219</v>
+        <v>1022.065682353222</v>
       </c>
       <c r="Y4" t="n">
-        <v>1330.590312102689</v>
+        <v>801.2731032096923</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2005.350650739662</v>
+        <v>1688.012023266461</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.388133799251</v>
+        <v>1688.012023266461</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.1224351925</v>
+        <v>1329.746324659711</v>
       </c>
       <c r="E5" t="n">
-        <v>892.3341825942559</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="F5" t="n">
-        <v>481.3482778046484</v>
+        <v>532.9721672718592</v>
       </c>
       <c r="G5" t="n">
-        <v>65.66643600478034</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104791</v>
+        <v>189.9868871104773</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135523</v>
+        <v>447.8319447135505</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477401</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187504</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539973</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082063</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U5" t="n">
-        <v>2336.413538083233</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="V5" t="n">
-        <v>2005.350650739662</v>
+        <v>2078.151355242273</v>
       </c>
       <c r="W5" t="n">
-        <v>2005.350650739662</v>
+        <v>2078.151355242273</v>
       </c>
       <c r="X5" t="n">
-        <v>2005.350650739662</v>
+        <v>2078.151355242273</v>
       </c>
       <c r="Y5" t="n">
-        <v>2005.350650739662</v>
+        <v>1688.012023266461</v>
       </c>
     </row>
     <row r="6">
@@ -4629,37 +4629,37 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>240.1153828096208</v>
       </c>
       <c r="K6" t="n">
         <v>426.7768722128335</v>
       </c>
       <c r="L6" t="n">
-        <v>1067.800081832728</v>
+        <v>724.0888213291482</v>
       </c>
       <c r="M6" t="n">
-        <v>1434.105971325053</v>
+        <v>1090.394710821474</v>
       </c>
       <c r="N6" t="n">
-        <v>1824.515532650795</v>
+        <v>1545.528931182469</v>
       </c>
       <c r="O6" t="n">
-        <v>2195.735752851538</v>
+        <v>1880.457611898</v>
       </c>
       <c r="P6" t="n">
         <v>2445.212480716556</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>348.8064422330658</v>
+        <v>623.2887458811758</v>
       </c>
       <c r="C7" t="n">
-        <v>348.8064422330658</v>
+        <v>454.3525629532689</v>
       </c>
       <c r="D7" t="n">
-        <v>198.6898028207301</v>
+        <v>304.2359235409332</v>
       </c>
       <c r="E7" t="n">
-        <v>198.6898028207301</v>
+        <v>304.2359235409332</v>
       </c>
       <c r="F7" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080546</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121972</v>
@@ -4753,22 +4753,22 @@
         <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1646.983670153878</v>
+        <v>1424.049095695859</v>
       </c>
       <c r="U7" t="n">
-        <v>1357.865893164276</v>
+        <v>1424.049095695859</v>
       </c>
       <c r="V7" t="n">
-        <v>1103.181404958389</v>
+        <v>1424.049095695859</v>
       </c>
       <c r="W7" t="n">
-        <v>813.7642349214286</v>
+        <v>1134.631925658899</v>
       </c>
       <c r="X7" t="n">
-        <v>585.7746840234113</v>
+        <v>1025.729789854946</v>
       </c>
       <c r="Y7" t="n">
-        <v>530.4549070633055</v>
+        <v>804.9372107114156</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>933.910773749237</v>
+        <v>1241.74556050277</v>
       </c>
       <c r="C8" t="n">
-        <v>933.910773749237</v>
+        <v>1241.74556050277</v>
       </c>
       <c r="D8" t="n">
-        <v>933.910773749237</v>
+        <v>1241.74556050277</v>
       </c>
       <c r="E8" t="n">
-        <v>933.910773749237</v>
+        <v>855.9573079045256</v>
       </c>
       <c r="F8" t="n">
-        <v>522.9248689596295</v>
+        <v>467.4816971226878</v>
       </c>
       <c r="G8" t="n">
-        <v>107.2430271597615</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H8" t="n">
-        <v>107.2430271597615</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J8" t="n">
         <v>189.9868871104781</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135512</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477385</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187502</v>
@@ -4820,34 +4820,34 @@
         <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="T8" t="n">
-        <v>2381.347406599813</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="U8" t="n">
-        <v>2381.347406599813</v>
+        <v>2336.413538083232</v>
       </c>
       <c r="V8" t="n">
-        <v>2050.284519256243</v>
+        <v>2005.350650739661</v>
       </c>
       <c r="W8" t="n">
-        <v>1697.515863986129</v>
+        <v>2005.350650739661</v>
       </c>
       <c r="X8" t="n">
-        <v>1324.050105725049</v>
+        <v>1631.884892478582</v>
       </c>
       <c r="Y8" t="n">
-        <v>933.910773749237</v>
+        <v>1241.74556050277</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4878,31 @@
         <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>573.7192355186005</v>
+        <v>563.7673318682815</v>
       </c>
       <c r="L9" t="n">
-        <v>871.0311846349152</v>
+        <v>861.0792809845962</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.337074127241</v>
+        <v>1227.385170476922</v>
       </c>
       <c r="N9" t="n">
-        <v>1627.746635452983</v>
+        <v>1860.807072136007</v>
       </c>
       <c r="O9" t="n">
-        <v>1962.675316168515</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P9" t="n">
-        <v>2212.152044033533</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>157.3459760430229</v>
+        <v>982.2794430485947</v>
       </c>
       <c r="C10" t="n">
-        <v>157.3459760430229</v>
+        <v>813.3432601206878</v>
       </c>
       <c r="D10" t="n">
-        <v>157.3459760430229</v>
+        <v>663.226620708352</v>
       </c>
       <c r="E10" t="n">
-        <v>157.3459760430229</v>
+        <v>515.3135271259589</v>
       </c>
       <c r="F10" t="n">
-        <v>157.3459760430229</v>
+        <v>368.4235796280485</v>
       </c>
       <c r="G10" t="n">
-        <v>157.3459760430229</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080553</v>
+        <v>77.98108068080546</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
@@ -4990,22 +4990,22 @@
         <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.347541317019</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1150.229764327418</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>895.5452761215308</v>
+        <v>1392.299181947991</v>
       </c>
       <c r="W10" t="n">
-        <v>606.1281060845703</v>
+        <v>1163.927907878834</v>
       </c>
       <c r="X10" t="n">
-        <v>378.1385551865529</v>
+        <v>1163.927907878834</v>
       </c>
       <c r="Y10" t="n">
-        <v>157.3459760430229</v>
+        <v>1163.927907878834</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5027,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>119.2902967703778</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="N12" t="n">
         <v>1344.266747951537</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.547769317909</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>697.5276345711973</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,7 +5215,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
@@ -5224,25 +5224,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5276,25 +5276,25 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C16" t="n">
-        <v>382.4184417036851</v>
+        <v>705.9324428257324</v>
       </c>
       <c r="D16" t="n">
-        <v>382.4184417036842</v>
+        <v>555.8158034133967</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310036</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330932</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="17">
@@ -5507,31 +5507,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5598,22 +5598,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>632.7243904253744</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253744</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253744</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429812</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429812</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578612</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000592</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5750,22 +5750,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>554.5813165460164</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C25" t="n">
-        <v>385.6451336181095</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D25" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E25" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2242.968377633621</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.366912656562</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,13 +6300,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6318,7 +6318,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832229</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.979202260897</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1434.29471405501</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>1434.29471405501</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.305163156993</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134626</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="29">
@@ -6452,37 +6452,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1542.063419261731</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1252.64624922477</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1024.656698326753</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>803.8641191832228</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,19 +6686,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6713,34 +6713,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>768.5380889459582</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>599.6019060180513</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D34" t="n">
-        <v>599.6019060180513</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>599.6019060180513</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817745</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X34" t="n">
-        <v>1170.979132919728</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y34" t="n">
-        <v>950.1865537761979</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6959,25 +6959,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319332</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656826</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580113</v>
@@ -7594,25 +7594,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7658,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,34 +7819,34 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>151.673509307991</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>348.4370131942342</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>338.937478165969</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>167.5093319512395</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8061,19 +8061,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>248.7601900310701</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>380.8926041660675</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>186.330354504933</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8298,19 +8298,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>347.1830914177569</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>65.3784434699524</v>
       </c>
       <c r="O6" t="n">
-        <v>36.65812069213274</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>148.4266296017847</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>245.4670104377199</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>-1.465101099348471e-13</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>222.543906570527</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>106.5730685009476</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>37.49622499973303</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>22.39178164145545</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>102.8768876993832</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>84.77391660561861</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>37.12601365260559</v>
+        <v>138.8202214113372</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>117.6820817884501</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>5.728115292809917</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>40.32043864788571</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>45.44677382459227</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>69.70496293143134</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24652,16 +24652,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0.5874149221289713</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>57.22910392194223</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>107.2784330767821</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>31.77834493961092</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>211.1765892730633</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.9259388694753738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-6.983302952577993e-13</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26317,25 +26317,25 @@
         <v>287364.6194524992</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="E2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915023</v>
       </c>
       <c r="F2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="G2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="H2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="I2" t="n">
         <v>282501.3098915023</v>
       </c>
       <c r="J2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915023</v>
       </c>
       <c r="K2" t="n">
         <v>282501.3098915023</v>
@@ -26344,16 +26344,16 @@
         <v>282501.3098915022</v>
       </c>
       <c r="M2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="N2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524992</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753958</v>
+        <v>939682.9358753973</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898951</v>
+        <v>172764.3597898935</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457506</v>
+        <v>500888.8677457512</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260481</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042354</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363193</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101369.1438127062</v>
+        <v>101369.1438127058</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
         <v>6287.480531695051</v>
@@ -26433,31 +26433,31 @@
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695081</v>
+        <v>6287.480531695024</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695056</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695034</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695034</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478853</v>
       </c>
       <c r="P4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478853</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699085</v>
+        <v>89345.07489699086</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150958</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150958</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-878854.2286500512</v>
+        <v>-879110.0978894628</v>
       </c>
       <c r="C6" t="n">
-        <v>-107947.5844241534</v>
+        <v>-107947.5844241519</v>
       </c>
       <c r="D6" t="n">
-        <v>64816.77536574134</v>
+        <v>64816.77536574165</v>
       </c>
       <c r="E6" t="n">
-        <v>-325797.5682098506</v>
+        <v>-325832.3061352868</v>
       </c>
       <c r="F6" t="n">
-        <v>175091.2995359001</v>
+        <v>175056.5616104644</v>
       </c>
       <c r="G6" t="n">
-        <v>175091.2995359001</v>
+        <v>175056.5616104644</v>
       </c>
       <c r="H6" t="n">
-        <v>175091.2995359001</v>
+        <v>175056.5616104642</v>
       </c>
       <c r="I6" t="n">
-        <v>175091.2995359001</v>
+        <v>175056.5616104642</v>
       </c>
       <c r="J6" t="n">
-        <v>5677.282709851948</v>
+        <v>5642.544784416488</v>
       </c>
       <c r="K6" t="n">
-        <v>175091.2995359001</v>
+        <v>175056.5616104644</v>
       </c>
       <c r="L6" t="n">
-        <v>175091.2995359</v>
+        <v>175056.5616104644</v>
       </c>
       <c r="M6" t="n">
-        <v>44206.84263166472</v>
+        <v>44172.10470622899</v>
       </c>
       <c r="N6" t="n">
-        <v>175091.2995359002</v>
+        <v>175056.5616104642</v>
       </c>
       <c r="O6" t="n">
         <v>150494.4458101635</v>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976094</v>
       </c>
       <c r="C3" t="n">
         <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498448</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26817,10 +26817,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976094</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522367</v>
+        <v>189.725434152235</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918292</v>
+        <v>428.2691096918297</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26990,13 +26990,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.2100965644023</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.2100965644023</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.2100965644023</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>66.14514654423309</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885176</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>172.4014672294505</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>15.94167704225731</v>
       </c>
       <c r="G4" t="n">
         <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>114.7793764994863</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>116.4834600519699</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>287.0583723733188</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>195.0081062320382</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>117.8965409431238</v>
       </c>
       <c r="Y7" t="n">
-        <v>163.8180741615901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,10 +27859,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>22.28519106769204</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>9.946825329107334</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>15.14546116494813</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>60.43543700812589</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-1.319714707885093e-12</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28740,7 +28740,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090883</v>
+        <v>3.01499882009089</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625576</v>
+        <v>30.87735666625584</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115539</v>
+        <v>116.2357420115542</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066888</v>
+        <v>255.8942561066894</v>
       </c>
       <c r="K2" t="n">
-        <v>383.519156161136</v>
+        <v>383.5191561611368</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014924</v>
+        <v>475.7894263014935</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682837</v>
+        <v>529.4074115682848</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658669</v>
+        <v>537.9737769658682</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485882</v>
+        <v>507.9933824485893</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775944</v>
+        <v>433.5605990775954</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330896</v>
+        <v>325.5859538330903</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325341</v>
+        <v>189.3909196325345</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282107</v>
+        <v>68.70428561282122</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494785</v>
+        <v>13.19815733494788</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072706</v>
+        <v>0.2411999056072711</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6131665856741</v>
+        <v>1.613166585674103</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743144</v>
+        <v>15.57979307743148</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307757</v>
+        <v>55.54104253307769</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859903</v>
+        <v>152.4088658859907</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126155</v>
+        <v>260.4910271261555</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605101</v>
+        <v>350.2623325605109</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911962</v>
+        <v>408.7396212911971</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240721</v>
+        <v>419.557742824073</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257144</v>
+        <v>383.8133674257153</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433287</v>
+        <v>308.0440649433295</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028904</v>
+        <v>205.9192996028908</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526428</v>
+        <v>100.157834152643</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969214</v>
+        <v>29.96386179969221</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993408</v>
+        <v>6.502193386993423</v>
       </c>
       <c r="U3" t="n">
-        <v>0.106129380636454</v>
+        <v>0.1061293806364542</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651424</v>
+        <v>1.352424675651427</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351903</v>
+        <v>12.02428484351906</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777192</v>
+        <v>40.67109842777201</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855564</v>
+        <v>95.61642456855586</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711381</v>
+        <v>157.1271577711385</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600308</v>
+        <v>201.0686649600312</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932499</v>
+        <v>211.9987152932504</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840039</v>
+        <v>206.9578596840044</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184395</v>
+        <v>191.1590805184399</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351503</v>
+        <v>163.5696171351507</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311388</v>
+        <v>113.247124431139</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519945</v>
+        <v>60.80993132519959</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567071</v>
+        <v>23.56907366567076</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965173</v>
+        <v>5.778541795965185</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189592</v>
+        <v>0.07376861867189609</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265705</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730741</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839335</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712725</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086972</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470013</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,43 +31677,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.1932427566251</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843064</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523074</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>164.2853229338196</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -31865,7 +31865,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>616.9033572954396</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32318,10 +32318,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,22 +33026,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>218.6425359394812</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,16 +33731,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,16 +34205,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520763</v>
+        <v>74.84835158000311</v>
       </c>
       <c r="K2" t="n">
-        <v>315.1028144241465</v>
+        <v>163.4293051161563</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315052</v>
+        <v>240.0230113315063</v>
       </c>
       <c r="M2" t="n">
-        <v>299.061178341011</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="N2" t="n">
-        <v>308.560713369276</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269015</v>
+        <v>445.4045029781421</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938075</v>
+        <v>202.3276033223259</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185448</v>
+        <v>103.2802639586409</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138441</v>
+        <v>39.52180169138484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597324</v>
+        <v>151.6622745597328</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643746</v>
+        <v>387.1148251643751</v>
       </c>
       <c r="L3" t="n">
-        <v>460.4681428117061</v>
+        <v>211.7079527806367</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691778</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407388</v>
+        <v>474.5463852456727</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812699</v>
+        <v>241.2171229812708</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689357</v>
+        <v>174.0696575289992</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527179</v>
+        <v>276.0148132527184</v>
       </c>
       <c r="R3" t="n">
-        <v>-3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882869</v>
+        <v>2.257244451883082</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452552</v>
+        <v>134.8576659452556</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203469</v>
+        <v>228.6586902203474</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550905</v>
+        <v>251.582592255091</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632325</v>
+        <v>251.090032063233</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324792</v>
+        <v>215.7442084324796</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000438</v>
+        <v>160.8481764000442</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944437</v>
+        <v>27.08508117944464</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>647.4981915352465</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
         <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>459.731535718177</v>
       </c>
       <c r="O6" t="n">
-        <v>374.9699193946894</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>570.4594634530874</v>
       </c>
       <c r="Q6" t="n">
         <v>118.0296862297622</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873425</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495858</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342477</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961991</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K9" t="n">
-        <v>336.9735885949289</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.005948982147</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482247</v>
+        <v>639.8201026859444</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131504</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656114</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R9" t="n">
-        <v>25.33729477225506</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978365</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912598</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701674</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>25.7309431539454</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>485.5616452121063</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35966,10 +35966,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,19 +36677,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>256.1654199113569</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016747</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q43" t="n">
         <v>144.6869047919381</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
